--- a/template/potem3.xlsx
+++ b/template/potem3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{442DA503-903E-204E-BF9D-9C7AE5C9CD32}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3E2DF4-D9E0-474C-B5F8-46265E6E5576}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -24,125 +24,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <r>
-      <t>軒</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>威</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>投</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>限</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>司</t>
-    </r>
-  </si>
   <si>
     <t>HIGH ABLE INVESTMENT LIMITED</t>
   </si>
@@ -300,6 +181,126 @@
     <t xml:space="preserve">TEL : </t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>軒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>投</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>限</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>司</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -471,24 +472,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -605,67 +594,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -680,46 +617,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,7 +1032,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1054,16 +1048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
+      <c r="A1" s="16" t="s">
+        <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1084,16 +1078,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>1</v>
+      <c r="A2" s="20" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1114,16 +1108,16 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="24" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>2</v>
+      <c r="A3" s="21" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1144,16 +1138,16 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="22" t="s">
+        <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1174,16 +1168,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>4</v>
+      <c r="A5" s="21" t="s">
+        <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1204,14 +1198,14 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1232,14 +1226,14 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1260,18 +1254,18 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
+      <c r="A8" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>5</v>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1292,16 +1286,16 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>15</v>
+      <c r="A9" s="31" t="s">
+        <v>14</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1322,16 +1316,16 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
+      <c r="A10" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1352,16 +1346,16 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
+      <c r="A11" s="26" t="s">
+        <v>17</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1382,18 +1376,18 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
+      <c r="A12" s="26" t="s">
+        <v>16</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="s">
+        <v>5</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1414,14 +1408,14 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1442,16 +1436,16 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A14" s="46" t="s">
-        <v>7</v>
+      <c r="A14" s="39" t="s">
+        <v>6</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1472,14 +1466,14 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1500,26 +1494,26 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1540,191 +1534,191 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="39" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="21" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1739,7 +1733,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1767,9 +1761,9 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1794,10 +1788,10 @@
     <row r="26" spans="1:26" ht="9.75" hidden="1" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1822,10 +1816,10 @@
     <row r="27" spans="1:26" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1848,15 +1842,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" hidden="1" customHeight="1">
-      <c r="A28" s="45" t="s">
-        <v>14</v>
+      <c r="A28" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1878,13 +1872,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="24" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1906,13 +1900,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1934,9 +1928,9 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1962,9 +1956,9 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2012,6 +2006,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A28:G28"/>
@@ -2026,11 +2025,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
